--- a/A_Part/A-2/Trans_Tables/Uniform.xlsx
+++ b/A_Part/A-2/Trans_Tables/Uniform.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frottori/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8A09841-2182-DD46-858D-11DCD095A132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9C325B-507F-BA4D-A51F-DE5675BA2E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{3BD682AF-1188-814A-A4BB-5643F35E71D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AB$27</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -296,7 +299,7 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4E12D6-D5D6-2C45-B0F9-000DF5ABE4D8}">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,7 +661,10 @@
     <col min="21" max="21" width="12.83203125" style="1" customWidth="1"/>
     <col min="22" max="22" width="13" style="1" customWidth="1"/>
     <col min="23" max="23" width="12.83203125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="1"/>
+    <col min="24" max="24" width="10.83203125" style="1"/>
+    <col min="25" max="25" width="10.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.1640625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
@@ -675,71 +681,71 @@
       <c r="E1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3">
-        <v>0</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>50</v>
@@ -761,73 +767,73 @@
       <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6" t="str" cm="1">
-        <f t="array" ref="F2:F5">B2:B5</f>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="str" cm="1">
+        <f t="array" ref="H2:H6">E2:E6</f>
+        <v>BAD</v>
+      </c>
+      <c r="I2" s="6" t="str" cm="1">
+        <f t="array" ref="I2:I6">B2:B6</f>
         <v>S0_IDENT</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="J2" s="6" t="str" cm="1">
+        <f t="array" ref="J2:J6">B2:B6</f>
+        <v>S0_IDENT</v>
+      </c>
+      <c r="K2" s="6" t="str" cm="1">
+        <f t="array" ref="K2:K6">B2:B6</f>
+        <v>S0_IDENT</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6" t="str" cm="1">
+        <f t="array" ref="O2:O5">B2:B5</f>
+        <v>S0_IDENT</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="W2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="6" t="str" cm="1">
-        <f t="array" ref="W2:W6">B2:B6</f>
-        <v>S0_IDENT</v>
-      </c>
-      <c r="X2" s="6" t="str" cm="1">
-        <f t="array" ref="X2:X6">B2:B6</f>
-        <v>S0_IDENT</v>
-      </c>
-      <c r="Y2" s="6" t="str" cm="1">
-        <f t="array" ref="Y2:Y6">B2:B6</f>
-        <v>S0_IDENT</v>
-      </c>
-      <c r="Z2" s="6" t="str" cm="1">
-        <f t="array" ref="Z2:Z6">E2:E6</f>
-        <v>BAD</v>
       </c>
       <c r="AA2" s="6" t="s">
         <v>25</v>
@@ -852,23 +858,23 @@
       <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="str">
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="str">
         <v>S0_IDENT</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>25</v>
+      <c r="I3" s="6" t="str">
+        <v>S0_IDENT</v>
+      </c>
+      <c r="J3" s="6" t="str">
+        <v>S0_IDENT</v>
+      </c>
+      <c r="K3" s="6" t="str">
+        <v>S0_IDENT</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>25</v>
@@ -879,8 +885,8 @@
       <c r="N3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>25</v>
+      <c r="O3" s="6" t="str">
+        <v>S0_IDENT</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>25</v>
@@ -903,17 +909,17 @@
       <c r="V3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="6" t="str">
-        <v>S0_IDENT</v>
-      </c>
-      <c r="X3" s="6" t="str">
-        <v>S0_IDENT</v>
-      </c>
-      <c r="Y3" s="6" t="str">
-        <v>S0_IDENT</v>
-      </c>
-      <c r="Z3" s="6" t="str">
-        <v>S0_IDENT</v>
+      <c r="W3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="AA3" s="6" t="s">
         <v>25</v>
@@ -938,23 +944,23 @@
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="str">
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6" t="str">
         <v>S1_STR</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>3</v>
+      <c r="I4" s="6" t="str">
+        <v>S1_STR</v>
+      </c>
+      <c r="J4" s="6" t="str">
+        <v>S1_STR</v>
+      </c>
+      <c r="K4" s="6" t="str">
+        <v>S1_STR</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>3</v>
@@ -965,11 +971,11 @@
       <c r="N4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>3</v>
+      <c r="O4" s="6" t="str">
+        <v>S1_STR</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>3</v>
@@ -987,22 +993,22 @@
         <v>3</v>
       </c>
       <c r="V4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="W4" s="6" t="str">
-        <v>S1_STR</v>
-      </c>
-      <c r="X4" s="6" t="str">
-        <v>S1_STR</v>
-      </c>
-      <c r="Y4" s="6" t="str">
-        <v>S1_STR</v>
-      </c>
-      <c r="Z4" s="6" t="str">
-        <v>S1_STR</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>3</v>
@@ -1024,23 +1030,23 @@
       <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="str">
+      <c r="F5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6" t="str">
+        <v>S2_STR</v>
+      </c>
+      <c r="I5" s="6" t="str">
         <v>S1_STR</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>3</v>
+      <c r="J5" s="6" t="str">
+        <v>S1_STR</v>
+      </c>
+      <c r="K5" s="6" t="str">
+        <v>S1_STR</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>3</v>
@@ -1051,11 +1057,11 @@
       <c r="N5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>3</v>
+      <c r="O5" s="6" t="str">
+        <v>S1_STR</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>3</v>
@@ -1073,22 +1079,22 @@
         <v>3</v>
       </c>
       <c r="V5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="W5" s="6" t="str">
-        <v>S1_STR</v>
-      </c>
-      <c r="X5" s="6" t="str">
-        <v>S1_STR</v>
-      </c>
-      <c r="Y5" s="6" t="str">
-        <v>S1_STR</v>
-      </c>
-      <c r="Z5" s="6" t="str">
-        <v>S2_STR</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>3</v>
@@ -1111,22 +1117,22 @@
         <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+      <c r="H6" s="6" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="J6" s="6" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="K6" s="6" t="str">
+        <v>BAD</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>25</v>
@@ -1138,10 +1144,10 @@
         <v>25</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>25</v>
@@ -1159,22 +1165,22 @@
         <v>25</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="W6" s="6" t="str">
-        <v>BAD</v>
-      </c>
-      <c r="X6" s="6" t="str">
-        <v>BAD</v>
-      </c>
-      <c r="Y6" s="6" t="str">
-        <v>BAD</v>
-      </c>
-      <c r="Z6" s="6" t="str">
-        <v>BAD</v>
+        <v>25</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>25</v>
@@ -1197,7 +1203,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>25</v>
@@ -1206,16 +1212,16 @@
         <v>11</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>25</v>
@@ -1248,19 +1254,19 @@
         <v>25</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X7" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="Y7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>25</v>
@@ -1283,10 +1289,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>6</v>
@@ -1295,13 +1301,13 @@
         <v>25</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>25</v>
@@ -1337,7 +1343,7 @@
         <v>25</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="Y8" s="6" t="s">
         <v>25</v>
@@ -1346,7 +1352,7 @@
         <v>25</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>25</v>
@@ -1369,19 +1375,19 @@
         <v>14</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>25</v>
@@ -1423,7 +1429,7 @@
         <v>25</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="Y9" s="6" t="s">
         <v>25</v>
@@ -1455,19 +1461,19 @@
         <v>25</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>25</v>
@@ -1476,7 +1482,7 @@
         <v>25</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>25</v>
@@ -1494,7 +1500,7 @@
         <v>25</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>25</v>
@@ -1544,7 +1550,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>25</v>
@@ -1553,7 +1559,7 @@
         <v>25</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>25</v>
@@ -1627,10 +1633,10 @@
         <v>13</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>13</v>
@@ -1639,11 +1645,11 @@
         <v>25</v>
       </c>
       <c r="J12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="L12" s="6" t="s">
         <v>25</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>25</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Z12" s="6" t="s">
         <v>25</v>
@@ -1713,7 +1719,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>25</v>
@@ -1773,7 +1779,7 @@
         <v>25</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AA13" s="6" t="s">
         <v>25</v>
@@ -1799,10 +1805,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>12</v>
@@ -1811,7 +1817,7 @@
         <v>25</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>25</v>
@@ -1885,10 +1891,10 @@
         <v>13</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>13</v>
@@ -1897,11 +1903,11 @@
         <v>25</v>
       </c>
       <c r="J15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="L15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1942,7 +1948,7 @@
         <v>25</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Z15" s="6" t="s">
         <v>25</v>
@@ -1971,10 +1977,10 @@
         <v>14</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>14</v>
@@ -1983,7 +1989,7 @@
         <v>25</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>25</v>
@@ -2075,7 +2081,7 @@
         <v>25</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>25</v>
@@ -2093,7 +2099,7 @@
         <v>25</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>25</v>
@@ -2173,7 +2179,7 @@
         <v>25</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>25</v>
@@ -2191,7 +2197,7 @@
         <v>25</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>25</v>
@@ -2247,7 +2253,7 @@
         <v>25</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>25</v>
@@ -2283,7 +2289,7 @@
         <v>25</v>
       </c>
       <c r="X19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y19" s="6" t="s">
         <v>25</v>
@@ -2333,10 +2339,10 @@
         <v>25</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>25</v>
@@ -2351,10 +2357,10 @@
         <v>25</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T20" s="6" t="s">
         <v>25</v>
@@ -2443,7 +2449,7 @@
         <v>25</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U21" s="6" t="s">
         <v>25</v>
@@ -2458,7 +2464,7 @@
         <v>25</v>
       </c>
       <c r="Y21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z21" s="6" t="s">
         <v>25</v>
@@ -2502,28 +2508,28 @@
         <v>25</v>
       </c>
       <c r="K22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="R22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>25</v>
@@ -2532,22 +2538,22 @@
         <v>25</v>
       </c>
       <c r="U22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z22" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="V22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="W22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="X22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z22" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="AA22" s="6" t="s">
         <v>25</v>
@@ -2674,7 +2680,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>22</v>
@@ -2692,7 +2698,7 @@
         <v>22</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R24" s="6" t="s">
         <v>22</v>
@@ -2790,7 +2796,7 @@
         <v>25</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V25" s="6" t="s">
         <v>25</v>
@@ -2805,7 +2811,7 @@
         <v>25</v>
       </c>
       <c r="Z25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA25" s="6" t="s">
         <v>25</v>
@@ -2897,7 +2903,7 @@
         <v>24</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
@@ -2987,6 +2993,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/A_Part/A-2/Trans_Tables/Uniform.xlsx
+++ b/A_Part/A-2/Trans_Tables/Uniform.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frottori/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9C325B-507F-BA4D-A51F-DE5675BA2E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB65781-B4B0-1C40-8608-0A8A44C3A324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{3BD682AF-1188-814A-A4BB-5643F35E71D0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{3BD682AF-1188-814A-A4BB-5643F35E71D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AB$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AA$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="53">
   <si>
     <t>SZ</t>
   </si>
@@ -188,9 +188,6 @@
     <t>_</t>
   </si>
   <si>
-    <t>0-9</t>
-  </si>
-  <si>
     <t>\</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>A-F</t>
   </si>
   <si>
-    <t>0-7</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -216,12 +210,24 @@
   </si>
   <si>
     <t>\n \s \t</t>
+  </si>
+  <si>
+    <t>SG / GOOD</t>
+  </si>
+  <si>
+    <t>SB / BAD</t>
+  </si>
+  <si>
+    <t>1-7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -315,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -637,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4E12D6-D5D6-2C45-B0F9-000DF5ABE4D8}">
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,7 +673,7 @@
     <col min="27" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>26</v>
@@ -678,17 +684,17 @@
       <c r="D1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="3">
+      <c r="E1" s="3">
         <v>0</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="G1" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>45</v>
@@ -699,59 +705,56 @@
       <c r="K1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="R1" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="S1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="X1" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Y1" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -765,17 +768,17 @@
         <v>25</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H2" s="6" t="str" cm="1">
-        <f t="array" ref="H2:H6">E2:E6</f>
-        <v>BAD</v>
+        <f t="array" ref="H2:H6">B2:B6</f>
+        <v>S0_IDENT</v>
       </c>
       <c r="I2" s="6" t="str" cm="1">
         <f t="array" ref="I2:I6">B2:B6</f>
@@ -785,25 +788,24 @@
         <f t="array" ref="J2:J6">B2:B6</f>
         <v>S0_IDENT</v>
       </c>
-      <c r="K2" s="6" t="str" cm="1">
-        <f t="array" ref="K2:K6">B2:B6</f>
+      <c r="K2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6" t="str" cm="1">
+        <f t="array" ref="N2:N5">B2:B5</f>
         <v>S0_IDENT</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6" t="str" cm="1">
-        <f t="array" ref="O2:O5">B2:B5</f>
-        <v>S0_IDENT</v>
+      <c r="O2" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>15</v>
@@ -818,31 +820,28 @@
         <v>15</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AA2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -855,7 +854,7 @@
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -873,20 +872,20 @@
       <c r="J3" s="6" t="str">
         <v>S0_IDENT</v>
       </c>
-      <c r="K3" s="6" t="str">
+      <c r="K3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="6" t="str">
         <v>S0_IDENT</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="6" t="str">
-        <v>S0_IDENT</v>
+      <c r="O3" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>25</v>
@@ -924,11 +923,8 @@
       <c r="AA3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -959,85 +955,82 @@
       <c r="J4" s="6" t="str">
         <v>S1_STR</v>
       </c>
-      <c r="K4" s="6" t="str">
+      <c r="K4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="6" t="str">
         <v>S1_STR</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="6" t="str">
+      <c r="O4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6" t="str">
         <v>S1_STR</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="6" t="str">
-        <v>S2_STR</v>
       </c>
       <c r="I5" s="6" t="str">
         <v>S1_STR</v>
@@ -1045,23 +1038,23 @@
       <c r="J5" s="6" t="str">
         <v>S1_STR</v>
       </c>
-      <c r="K5" s="6" t="str">
+      <c r="K5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="6" t="str">
         <v>S1_STR</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="6" t="str">
-        <v>S1_STR</v>
+      <c r="O5" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>3</v>
@@ -1091,16 +1084,13 @@
         <v>3</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1131,8 +1121,8 @@
       <c r="J6" s="6" t="str">
         <v>BAD</v>
       </c>
-      <c r="K6" s="6" t="str">
-        <v>BAD</v>
+      <c r="K6" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>25</v>
@@ -1141,13 +1131,13 @@
         <v>25</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>25</v>
@@ -1177,16 +1167,13 @@
         <v>25</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1200,28 +1187,28 @@
         <v>25</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>25</v>
@@ -1268,11 +1255,8 @@
       <c r="AA7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB7" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1295,19 +1279,19 @@
         <v>6</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>25</v>
@@ -1354,11 +1338,8 @@
       <c r="AA8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB8" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1384,10 +1365,10 @@
         <v>25</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>25</v>
@@ -1440,11 +1421,8 @@
       <c r="AA9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB9" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1458,10 +1436,10 @@
         <v>25</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>12</v>
@@ -1479,10 +1457,10 @@
         <v>25</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>25</v>
@@ -1526,11 +1504,8 @@
       <c r="AA10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB10" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1547,7 +1522,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>12</v>
@@ -1612,11 +1587,8 @@
       <c r="AA11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB11" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1639,16 +1611,16 @@
         <v>13</v>
       </c>
       <c r="H12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="K12" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>25</v>
@@ -1698,11 +1670,8 @@
       <c r="AA12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB12" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1716,16 +1685,16 @@
         <v>25</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>25</v>
@@ -1784,11 +1753,8 @@
       <c r="AA13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB13" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1811,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>25</v>
@@ -1870,11 +1836,8 @@
       <c r="AA14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB14" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1897,16 +1860,16 @@
         <v>13</v>
       </c>
       <c r="H15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="K15" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>25</v>
@@ -1956,11 +1919,8 @@
       <c r="AA15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB15" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1979,11 +1939,11 @@
       <c r="F16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>25</v>
@@ -2042,11 +2002,8 @@
       <c r="AA16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB16" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2096,10 +2053,10 @@
         <v>25</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>25</v>
@@ -2128,11 +2085,8 @@
       <c r="AA17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB17" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2194,10 +2148,10 @@
         <v>25</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>25</v>
@@ -2214,11 +2168,8 @@
       <c r="AA18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB18" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -2268,10 +2219,10 @@
         <v>25</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>25</v>
@@ -2286,10 +2237,10 @@
         <v>25</v>
       </c>
       <c r="W19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X19" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y19" s="6" t="s">
         <v>25</v>
@@ -2300,11 +2251,8 @@
       <c r="AA19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB19" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -2339,10 +2287,10 @@
         <v>25</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>25</v>
@@ -2354,10 +2302,10 @@
         <v>25</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>25</v>
@@ -2386,11 +2334,8 @@
       <c r="AA20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB20" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2461,10 +2406,10 @@
         <v>25</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y21" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z21" s="6" t="s">
         <v>25</v>
@@ -2472,11 +2417,8 @@
       <c r="AA21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB21" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -2523,13 +2465,13 @@
         <v>25</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>25</v>
@@ -2550,19 +2492,16 @@
         <v>25</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z22" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AA22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB22" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -2600,7 +2539,7 @@
         <v>21</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N23" s="6" t="s">
         <v>21</v>
@@ -2644,11 +2583,8 @@
       <c r="AA23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AB23" s="6" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -2695,10 +2631,10 @@
         <v>22</v>
       </c>
       <c r="P24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="R24" s="6" t="s">
         <v>22</v>
@@ -2730,11 +2666,8 @@
       <c r="AA24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AB24" s="6" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -2808,21 +2741,18 @@
         <v>25</v>
       </c>
       <c r="Y25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z25" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB25" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>24</v>
@@ -2902,13 +2832,10 @@
       <c r="AA26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AB26" s="6" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>25</v>
@@ -2986,9 +2913,6 @@
         <v>25</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB27" s="6" t="s">
         <v>25</v>
       </c>
     </row>

--- a/A_Part/A-2/Trans_Tables/Uniform.xlsx
+++ b/A_Part/A-2/Trans_Tables/Uniform.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frottori/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwagr-my.sharepoint.com/personal/ice21390021_uniwa_gr/Documents/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB65781-B4B0-1C40-8608-0A8A44C3A324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{ABB65781-B4B0-1C40-8608-0A8A44C3A324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39841EB5-D275-7047-87EE-3384BDB45626}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{3BD682AF-1188-814A-A4BB-5643F35E71D0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{3BD682AF-1188-814A-A4BB-5643F35E71D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -344,6 +344,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -645,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4E12D6-D5D6-2C45-B0F9-000DF5ABE4D8}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1365,7 +1369,7 @@
         <v>25</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>25</v>
@@ -2755,82 +2759,82 @@
         <v>50</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
